--- a/Modulo_1_es4_DOMANDE.xlsx
+++ b/Modulo_1_es4_DOMANDE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markt\Desktop\NewProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56DE1E79-2F3F-41DE-99F1-DD2C7925DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5AAD6-09BE-4266-BA5F-43DCE1074A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2ABE9CAD-8215-4B65-AFFF-3846A009DF57}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -395,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB54C80D-F40F-47D9-B3A5-C8A3E8D25A79}">
   <dimension ref="B1:C67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -889,15 +892,15 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+      <c r="B36" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="C36" s="6" t="s">
         <v>27</v>
       </c>
